--- a/service/Excel/template_add_new.xlsx
+++ b/service/Excel/template_add_new.xlsx
@@ -34,7 +34,7 @@
     <t>fb storis</t>
   </si>
   <si>
-    <t>трастовые аккаунты</t>
+    <t>1 s</t>
   </si>
   <si>
     <t>for test</t>
@@ -55,7 +55,7 @@
     <t>for test 12</t>
   </si>
   <si>
-    <t>трастовые аккаунты2</t>
+    <t>2 s</t>
   </si>
   <si>
     <t>for test 12312</t>
@@ -78,9 +78,11 @@
   <si>
     <t>for test 332323</t>
   </si>
-  <si/>
   <si>
     <t>fb storis Unique</t>
+  </si>
+  <si>
+    <t>3 s</t>
   </si>
 </sst>
 </file>
@@ -248,7 +250,7 @@
       <alignment horizontal="general" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf applyAlignment="true" applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="general" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
@@ -281,10 +283,6 @@
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="5" fontId="2" numFmtId="1000" quotePrefix="false">
-      <alignment horizontal="general" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFill="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="6" fontId="2" numFmtId="1000" quotePrefix="false">
       <alignment horizontal="general" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -556,18 +554,18 @@
       <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="11" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -577,148 +575,146 @@
         <v>9</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1</v>
+        <v>1121</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="3">
-      <c r="A3" s="11" t="n"/>
+      <c r="A3" s="10" t="n"/>
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="4">
-      <c r="A4" s="11" t="n"/>
+      <c r="A4" s="10" t="n"/>
       <c r="C4" s="2" t="n"/>
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="5">
-      <c r="A5" s="11" t="n"/>
+      <c r="A5" s="10" t="n"/>
       <c r="C5" s="2" t="n"/>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4</v>
+        <v>41</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="6">
-      <c r="A6" s="11" t="n"/>
+      <c r="A6" s="10" t="n"/>
       <c r="C6" s="2" t="n"/>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="7">
-      <c r="A7" s="11" t="n"/>
+      <c r="A7" s="10" t="n"/>
       <c r="B7" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>6</v>
+        <v>61</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="8">
-      <c r="A8" s="11" t="n"/>
+      <c r="A8" s="10" t="n"/>
       <c r="C8" s="2" t="n"/>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="9">
-      <c r="A9" s="11" t="n"/>
+      <c r="A9" s="10" t="n"/>
       <c r="C9" s="2" t="n"/>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="10">
-      <c r="A10" s="11" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="C10" s="2" t="n"/>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>9</v>
+        <v>91</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="11">
-      <c r="A11" s="11" t="n"/>
+      <c r="A11" s="10" t="n"/>
       <c r="C11" s="2" t="n"/>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="12">
-      <c r="A12" s="11" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="C12" s="2" t="n"/>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="13">
-      <c r="A13" s="11" t="n"/>
+      <c r="A13" s="10" t="n"/>
       <c r="C13" s="2" t="n"/>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>12</v>
+        <v>121</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="14">
-      <c r="A14" s="11" t="n"/>
+      <c r="A14" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="15">
-      <c r="A15" s="11" t="n"/>
+      <c r="A15" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="16">
-      <c r="A16" s="11" t="n"/>
-      <c r="D16" s="12" t="s">
+      <c r="A16" s="10" t="n"/>
+      <c r="D16" s="2" t="n"/>
+    </row>
+    <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="17">
+      <c r="A17" s="10" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="17">
-      <c r="A17" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>7</v>
+      <c r="C17" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
@@ -727,86 +723,86 @@
         <v>9</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>112</v>
+        <v>11212</v>
       </c>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="18">
-      <c r="A18" s="11" t="n"/>
+      <c r="A18" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="19">
-      <c r="A19" s="11" t="n"/>
+      <c r="A19" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="20">
-      <c r="A20" s="11" t="n"/>
+      <c r="A20" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="21">
-      <c r="A21" s="11" t="n"/>
+      <c r="A21" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="22">
-      <c r="A22" s="11" t="n"/>
+      <c r="A22" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="23">
-      <c r="A23" s="11" t="n"/>
+      <c r="A23" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="24">
-      <c r="A24" s="11" t="n"/>
+      <c r="A24" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="25">
-      <c r="A25" s="11" t="n"/>
+      <c r="A25" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="26">
-      <c r="A26" s="11" t="n"/>
+      <c r="A26" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="27">
-      <c r="A27" s="11" t="n"/>
+      <c r="A27" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="28">
-      <c r="A28" s="11" t="n"/>
+      <c r="A28" s="10" t="n"/>
     </row>
     <row hidden="false" ht="17.3500003814697" outlineLevel="0" r="29">
-      <c r="A29" s="11" t="n"/>
+      <c r="A29" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="30">
-      <c r="A30" s="11" t="n"/>
+      <c r="A30" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="31">
-      <c r="A31" s="11" t="n"/>
+      <c r="A31" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="32">
-      <c r="A32" s="11" t="n"/>
+      <c r="A32" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="33">
-      <c r="A33" s="11" t="n"/>
+      <c r="A33" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="34">
-      <c r="A34" s="11" t="n"/>
+      <c r="A34" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="35">
-      <c r="A35" s="11" t="n"/>
+      <c r="A35" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="36">
-      <c r="A36" s="11" t="n"/>
+      <c r="A36" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="37">
-      <c r="A37" s="11" t="n"/>
+      <c r="A37" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="38">
-      <c r="A38" s="11" t="n"/>
+      <c r="A38" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="39">
-      <c r="A39" s="11" t="n"/>
+      <c r="A39" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="40">
-      <c r="A40" s="11" t="n"/>
+      <c r="A40" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="41">
-      <c r="A41" s="11" t="n"/>
+      <c r="A41" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="42">
-      <c r="A42" s="11" t="n"/>
+      <c r="A42" s="10" t="n"/>
     </row>
     <row hidden="false" ht="18" outlineLevel="0" r="43">
-      <c r="A43" s="11" t="n"/>
+      <c r="A43" s="10" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.997222244739532" footer="0.787500023841858" header="0.787500023841858" left="0.787500023841858" right="0.787500023841858" top="0.997222244739532"/>
